--- a/Postal Zipcodes.xlsx
+++ b/Postal Zipcodes.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,9 +402,6 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>250002</v>
-      </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>

--- a/Postal Zipcodes.xlsx
+++ b/Postal Zipcodes.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
